--- a/Netbeans/ANA-ADDIX/output/data_storage/japancnet.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/japancnet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
     </mc:Choice>
@@ -37,18 +37,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30409909/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30410024/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30409893/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30409855/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30410063/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30409892/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30410098/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30410048/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30409583/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30409727/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30409394/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30409148/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30409794/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30408791/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30408925/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30407868/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/article/35146156/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30405956/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30405909/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30405516/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +495,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -463,7 +524,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,7 +552,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,7 +580,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +608,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +636,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -595,7 +656,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD93"/>
@@ -603,17 +664,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +792,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +820,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -685,7 +846,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -741,7 +902,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,7 +930,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +958,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,7 +986,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,7 +1014,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -879,7 +1040,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -907,7 +1068,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">

--- a/Netbeans/ANA-ADDIX/output/data_storage/japancnet.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/japancnet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2700BAB-E002-414B-A944-E9BB689ADCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6136230-11B3-4B5B-B355-183EACD9FE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="932" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Url</t>
   </si>
@@ -103,6 +103,66 @@
   </si>
   <si>
     <t>https://japan.cnet.com/release/30405516/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414213/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414104/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414187/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414132/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414274/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414279/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414299/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414345/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414407/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414265/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414228/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414169/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414446/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414290/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414249/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414321/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414277/</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414346/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414350/?ref=rss</t>
+  </si>
+  <si>
+    <t>https://japan.cnet.com/release/30414341/?ref=rss</t>
   </si>
 </sst>
 </file>
@@ -487,25 +547,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD706"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -522,17 +682,17 @@
       <selection activeCell="A3" sqref="A3:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,17 +710,17 @@
       <selection activeCell="A3" sqref="A3:XFD140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,17 +738,17 @@
       <selection activeCell="A3" sqref="A3:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -606,17 +766,17 @@
       <selection activeCell="A3" sqref="A3:XFD85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -634,17 +794,17 @@
       <selection activeCell="A3" sqref="A3:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -662,117 +822,117 @@
       <selection activeCell="A3" sqref="A3:XFD93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -790,17 +950,17 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -818,17 +978,17 @@
       <selection activeCell="A3" sqref="A3:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -842,19 +1002,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -872,17 +1032,17 @@
       <selection activeCell="A3" sqref="A3:XFD154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -900,17 +1060,17 @@
       <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -928,17 +1088,17 @@
       <selection activeCell="A3" sqref="A3:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -956,17 +1116,17 @@
       <selection activeCell="A3" sqref="A3:XFD190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -984,17 +1144,17 @@
       <selection activeCell="A3" sqref="A3:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1012,17 +1172,17 @@
       <selection activeCell="A3" sqref="A3:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1038,17 +1198,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1066,17 +1226,17 @@
       <selection activeCell="A3" sqref="A3:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
